--- a/cypress/downloads/order-invoice_skrishna007.xlsx
+++ b/cypress/downloads/order-invoice_skrishna007.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>665c9880ae2afd4c0beeac9a</v>
+        <v>665c9cd8ae2afd4c0beeb03a</v>
       </c>
       <c r="B2" t="str">
         <v>IPHONE 13 PRO</v>
